--- a/emx/freeze/rd3_freezeX.xlsx
+++ b/emx/freeze/rd3_freezeX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/molgenis-solve-rd/emx/freeze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6F7E38-909E-FA4A-AAC9-E9709F96AEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FC7D72-FA64-E940-845F-FCDF1208514D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="267">
   <si>
     <t>name</t>
   </si>
@@ -814,6 +814,15 @@
   </si>
   <si>
     <t>RD3-model_version1.2</t>
+  </si>
+  <si>
+    <t>DateSolved</t>
+  </si>
+  <si>
+    <t>date_solved</t>
+  </si>
+  <si>
+    <t>Date Solved</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1376,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:AO86"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4583,19 +4592,19 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="D68" t="s">
         <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s">
         <v>58</v>
@@ -4617,12 +4626,6 @@
       </c>
       <c r="N68" t="s">
         <v>27</v>
-      </c>
-      <c r="O68" t="s">
-        <v>138</v>
-      </c>
-      <c r="X68" t="s">
-        <v>6</v>
       </c>
       <c r="Y68" t="s">
         <v>27</v>
@@ -4809,22 +4812,19 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="C73" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D73" t="s">
         <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
-      </c>
-      <c r="F73" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s">
         <v>58</v>
@@ -4838,9 +4838,6 @@
       <c r="J73" t="s">
         <v>27</v>
       </c>
-      <c r="K73" t="s">
-        <v>27</v>
-      </c>
       <c r="L73" t="s">
         <v>27</v>
       </c>
@@ -4849,6 +4846,9 @@
       </c>
       <c r="N73" t="s">
         <v>27</v>
+      </c>
+      <c r="O73" t="s">
+        <v>138</v>
       </c>
       <c r="X73" t="s">
         <v>6</v>
@@ -4859,19 +4859,22 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="D74" t="s">
         <v>250</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
+        <v>74</v>
       </c>
       <c r="G74" t="s">
         <v>58</v>
@@ -4883,6 +4886,9 @@
         <v>58</v>
       </c>
       <c r="J74" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" t="s">
         <v>27</v>
       </c>
       <c r="L74" t="s">
@@ -4903,43 +4909,40 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E75" t="s">
         <v>57</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H75" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I75" t="s">
         <v>58</v>
       </c>
       <c r="J75" t="s">
-        <v>58</v>
-      </c>
-      <c r="K75" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="L75" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M75" t="s">
         <v>27</v>
       </c>
       <c r="N75" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="X75" t="s">
         <v>6</v>
@@ -4950,37 +4953,34 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D76" t="s">
         <v>251</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
-      </c>
-      <c r="F76" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="G76" t="s">
         <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I76" t="s">
         <v>58</v>
       </c>
       <c r="J76" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="K76" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="L76" t="s">
         <v>58</v>
@@ -4989,7 +4989,7 @@
         <v>27</v>
       </c>
       <c r="N76" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="X76" t="s">
         <v>6</v>
@@ -5000,22 +5000,25 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="D77" t="s">
         <v>251</v>
       </c>
       <c r="E77" t="s">
-        <v>230</v>
+        <v>73</v>
+      </c>
+      <c r="F77" t="s">
+        <v>250</v>
       </c>
       <c r="G77" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H77" t="s">
         <v>27</v>
@@ -5026,8 +5029,11 @@
       <c r="J77" t="s">
         <v>27</v>
       </c>
+      <c r="K77" t="s">
+        <v>27</v>
+      </c>
       <c r="L77" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M77" t="s">
         <v>27</v>
@@ -5044,10 +5050,13 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>231</v>
+        <v>227</v>
+      </c>
+      <c r="B78" t="s">
+        <v>228</v>
       </c>
       <c r="C78" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
         <v>251</v>
@@ -5085,10 +5094,10 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" t="s">
         <v>251</v>
@@ -5126,22 +5135,16 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>235</v>
-      </c>
-      <c r="B80" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D80" t="s">
         <v>251</v>
       </c>
       <c r="E80" t="s">
-        <v>73</v>
-      </c>
-      <c r="F80" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G80" t="s">
         <v>58</v>
@@ -5153,9 +5156,6 @@
         <v>58</v>
       </c>
       <c r="J80" t="s">
-        <v>27</v>
-      </c>
-      <c r="K80" t="s">
         <v>27</v>
       </c>
       <c r="L80" t="s">
@@ -5176,16 +5176,22 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>235</v>
+      </c>
+      <c r="B81" t="s">
+        <v>235</v>
       </c>
       <c r="C81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" t="s">
         <v>251</v>
       </c>
       <c r="E81" t="s">
-        <v>230</v>
+        <v>73</v>
+      </c>
+      <c r="F81" t="s">
+        <v>200</v>
       </c>
       <c r="G81" t="s">
         <v>58</v>
@@ -5197,6 +5203,9 @@
         <v>58</v>
       </c>
       <c r="J81" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" t="s">
         <v>27</v>
       </c>
       <c r="L81" t="s">
@@ -5217,16 +5226,16 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C82" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" t="s">
         <v>251</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="G82" t="s">
         <v>58</v>
@@ -5258,16 +5267,16 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" t="s">
         <v>251</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="G83" t="s">
         <v>58</v>
@@ -5299,22 +5308,16 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>70</v>
-      </c>
-      <c r="B84" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="C84" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D84" t="s">
         <v>251</v>
       </c>
       <c r="E84" t="s">
-        <v>140</v>
-      </c>
-      <c r="F84" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="G84" t="s">
         <v>58</v>
@@ -5326,9 +5329,6 @@
         <v>58</v>
       </c>
       <c r="J84" t="s">
-        <v>27</v>
-      </c>
-      <c r="K84" t="s">
         <v>27</v>
       </c>
       <c r="L84" t="s">
@@ -5349,45 +5349,95 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B85" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C85" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="D85" t="s">
         <v>251</v>
       </c>
       <c r="E85" t="s">
+        <v>140</v>
+      </c>
+      <c r="F85" t="s">
+        <v>74</v>
+      </c>
+      <c r="G85" t="s">
+        <v>58</v>
+      </c>
+      <c r="H85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" t="s">
+        <v>58</v>
+      </c>
+      <c r="J85" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" t="s">
+        <v>27</v>
+      </c>
+      <c r="L85" t="s">
+        <v>27</v>
+      </c>
+      <c r="M85" t="s">
+        <v>27</v>
+      </c>
+      <c r="N85" t="s">
+        <v>27</v>
+      </c>
+      <c r="X85" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" t="s">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" t="s">
         <v>57</v>
       </c>
-      <c r="G85" t="s">
-        <v>58</v>
-      </c>
-      <c r="H85" t="s">
-        <v>27</v>
-      </c>
-      <c r="I85" t="s">
-        <v>58</v>
-      </c>
-      <c r="J85" t="s">
-        <v>27</v>
-      </c>
-      <c r="L85" t="s">
-        <v>27</v>
-      </c>
-      <c r="M85" t="s">
-        <v>27</v>
-      </c>
-      <c r="N85" t="s">
-        <v>27</v>
-      </c>
-      <c r="X85" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y85" t="s">
+      <c r="G86" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s">
+        <v>58</v>
+      </c>
+      <c r="J86" t="s">
+        <v>27</v>
+      </c>
+      <c r="L86" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" t="s">
+        <v>27</v>
+      </c>
+      <c r="N86" t="s">
+        <v>27</v>
+      </c>
+      <c r="X86" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y86" t="s">
         <v>27</v>
       </c>
     </row>

--- a/emx/freeze/rd3_freezeX.xlsx
+++ b/emx/freeze/rd3_freezeX.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/molgenis-solve-rd/emx/freeze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FC7D72-FA64-E940-845F-FCDF1208514D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7B8FD2-467B-7F45-B93B-E0D2E56D1C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
     <sheet name="entities" sheetId="2" r:id="rId2"/>
     <sheet name="attributes" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">attributes!$A$1:$AO$88</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="274">
   <si>
     <t>name</t>
   </si>
@@ -823,6 +826,27 @@
   </si>
   <si>
     <t>Date Solved</t>
+  </si>
+  <si>
+    <t>mean_cov</t>
+  </si>
+  <si>
+    <t>c20</t>
+  </si>
+  <si>
+    <t>MeanCov</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>Mean read depth</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>Percentage of nucleotides within the Region of interest that is covered by at least 20 reads</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1385,10 +1409,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AO86"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AO88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1560,7 +1585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1607,7 +1632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1695,7 +1720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1745,7 +1770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1795,7 +1820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -1845,7 +1870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -1889,7 +1914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1933,7 +1958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -1974,7 +1999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -2018,7 +2043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2065,7 +2090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -2109,7 +2134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -2153,7 +2178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -2200,7 +2225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -2241,7 +2266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -2288,7 +2313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -2335,7 +2360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -2376,7 +2401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -3006,19 +3031,19 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="D34" t="s">
         <v>249</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="G34" t="s">
         <v>58</v>
@@ -3040,12 +3065,6 @@
       </c>
       <c r="N34" t="s">
         <v>27</v>
-      </c>
-      <c r="O34" t="s">
-        <v>138</v>
-      </c>
-      <c r="X34" t="s">
-        <v>6</v>
       </c>
       <c r="Y34" t="s">
         <v>27</v>
@@ -3053,22 +3072,19 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>270</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="D35" t="s">
         <v>249</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="G35" t="s">
         <v>58</v>
@@ -3090,9 +3106,6 @@
       </c>
       <c r="N35" t="s">
         <v>27</v>
-      </c>
-      <c r="X35" t="s">
-        <v>6</v>
       </c>
       <c r="Y35" t="s">
         <v>27</v>
@@ -3100,19 +3113,19 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
         <v>249</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
         <v>58</v>
@@ -3134,6 +3147,9 @@
       </c>
       <c r="N36" t="s">
         <v>27</v>
+      </c>
+      <c r="O36" t="s">
+        <v>138</v>
       </c>
       <c r="X36" t="s">
         <v>6</v>
@@ -3144,34 +3160,37 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>140</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I37" t="s">
         <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M37" t="s">
         <v>27</v>
@@ -3188,22 +3207,22 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s">
         <v>57</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H38" t="s">
         <v>27</v>
@@ -3214,17 +3233,14 @@
       <c r="J38" t="s">
         <v>27</v>
       </c>
-      <c r="K38" t="s">
-        <v>58</v>
-      </c>
       <c r="L38" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M38" t="s">
         <v>27</v>
       </c>
       <c r="N38" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="X38" t="s">
         <v>6</v>
@@ -3233,12 +3249,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D39" t="s">
         <v>248</v>
@@ -3247,19 +3266,19 @@
         <v>57</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I39" t="s">
         <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="L39" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M39" t="s">
         <v>27</v>
@@ -3274,27 +3293,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
         <v>248</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
         <v>27</v>
@@ -3305,14 +3321,17 @@
       <c r="J40" t="s">
         <v>27</v>
       </c>
+      <c r="K40" t="s">
+        <v>58</v>
+      </c>
       <c r="L40" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M40" t="s">
         <v>27</v>
       </c>
       <c r="N40" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="X40" t="s">
         <v>6</v>
@@ -3321,24 +3340,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
         <v>248</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="G41" t="s">
         <v>58</v>
@@ -3368,24 +3381,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
         <v>248</v>
       </c>
       <c r="E42" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G42" t="s">
         <v>58</v>
@@ -3415,21 +3428,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>148</v>
+      </c>
+      <c r="C43" t="s">
+        <v>149</v>
       </c>
       <c r="D43" t="s">
         <v>248</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G43" t="s">
         <v>58</v>
@@ -3459,24 +3475,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D44" t="s">
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G44" t="s">
         <v>58</v>
@@ -3506,21 +3522,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s">
         <v>248</v>
       </c>
       <c r="E45" t="s">
-        <v>163</v>
+        <v>73</v>
+      </c>
+      <c r="F45" t="s">
+        <v>156</v>
       </c>
       <c r="G45" t="s">
         <v>58</v>
@@ -3550,24 +3566,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D46" t="s">
         <v>248</v>
       </c>
       <c r="E46" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G46" t="s">
         <v>58</v>
@@ -3597,24 +3613,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
         <v>248</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G47" t="s">
         <v>58</v>
@@ -3644,18 +3657,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>164</v>
+      </c>
+      <c r="C48" t="s">
+        <v>165</v>
       </c>
       <c r="D48" t="s">
         <v>248</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>73</v>
+      </c>
+      <c r="F48" t="s">
+        <v>166</v>
       </c>
       <c r="G48" t="s">
         <v>58</v>
@@ -3678,12 +3697,6 @@
       <c r="N48" t="s">
         <v>27</v>
       </c>
-      <c r="O48" t="s">
-        <v>138</v>
-      </c>
-      <c r="W48" t="s">
-        <v>170</v>
-      </c>
       <c r="X48" t="s">
         <v>6</v>
       </c>
@@ -3691,21 +3704,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
         <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="F49" t="s">
+        <v>168</v>
       </c>
       <c r="G49" t="s">
         <v>58</v>
@@ -3735,21 +3751,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
         <v>248</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="G50" t="s">
         <v>58</v>
@@ -3772,6 +3785,12 @@
       <c r="N50" t="s">
         <v>27</v>
       </c>
+      <c r="O50" t="s">
+        <v>138</v>
+      </c>
+      <c r="W50" t="s">
+        <v>170</v>
+      </c>
       <c r="X50" t="s">
         <v>6</v>
       </c>
@@ -3779,24 +3798,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
         <v>248</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
-      </c>
-      <c r="F51" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="G51" t="s">
         <v>58</v>
@@ -3826,21 +3842,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
         <v>248</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
       </c>
       <c r="G52" t="s">
         <v>58</v>
@@ -3870,39 +3886,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>140</v>
+      </c>
+      <c r="F53" t="s">
+        <v>74</v>
       </c>
       <c r="G53" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I53" t="s">
         <v>58</v>
       </c>
       <c r="J53" t="s">
-        <v>58</v>
-      </c>
-      <c r="K53" t="s">
         <v>27</v>
       </c>
       <c r="L53" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M53" t="s">
         <v>27</v>
@@ -3911,30 +3927,30 @@
         <v>27</v>
       </c>
       <c r="X53" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="Y53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E54" t="s">
         <v>57</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H54" t="s">
         <v>27</v>
@@ -3945,9 +3961,6 @@
       <c r="J54" t="s">
         <v>27</v>
       </c>
-      <c r="K54" t="s">
-        <v>58</v>
-      </c>
       <c r="L54" t="s">
         <v>27</v>
       </c>
@@ -3955,7 +3968,7 @@
         <v>27</v>
       </c>
       <c r="N54" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="X54" t="s">
         <v>6</v>
@@ -3964,42 +3977,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
         <v>250</v>
       </c>
       <c r="E55" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I55" t="s">
         <v>58</v>
       </c>
       <c r="J55" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="K55" t="s">
         <v>27</v>
       </c>
       <c r="L55" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M55" t="s">
         <v>27</v>
@@ -4008,21 +4018,21 @@
         <v>27</v>
       </c>
       <c r="X55" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="Y55" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
         <v>250</v>
@@ -4031,7 +4041,7 @@
         <v>57</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H56" t="s">
         <v>27</v>
@@ -4042,6 +4052,9 @@
       <c r="J56" t="s">
         <v>27</v>
       </c>
+      <c r="K56" t="s">
+        <v>58</v>
+      </c>
       <c r="L56" t="s">
         <v>27</v>
       </c>
@@ -4049,7 +4062,7 @@
         <v>27</v>
       </c>
       <c r="N56" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="X56" t="s">
         <v>6</v>
@@ -4058,15 +4071,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
         <v>250</v>
@@ -4075,7 +4088,7 @@
         <v>73</v>
       </c>
       <c r="F57" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G57" t="s">
         <v>58</v>
@@ -4108,24 +4121,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D58" t="s">
         <v>250</v>
       </c>
       <c r="E58" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="G58" t="s">
         <v>58</v>
@@ -4139,9 +4149,6 @@
       <c r="J58" t="s">
         <v>27</v>
       </c>
-      <c r="K58" t="s">
-        <v>27</v>
-      </c>
       <c r="L58" t="s">
         <v>27</v>
       </c>
@@ -4158,21 +4165,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D59" t="s">
         <v>250</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>73</v>
+      </c>
+      <c r="F59" t="s">
+        <v>250</v>
       </c>
       <c r="G59" t="s">
         <v>58</v>
@@ -4186,6 +4196,9 @@
       <c r="J59" t="s">
         <v>27</v>
       </c>
+      <c r="K59" t="s">
+        <v>27</v>
+      </c>
       <c r="L59" t="s">
         <v>27</v>
       </c>
@@ -4202,24 +4215,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
         <v>250</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="G60" t="s">
         <v>58</v>
@@ -4228,7 +4241,7 @@
         <v>27</v>
       </c>
       <c r="I60" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="J60" t="s">
         <v>27</v>
@@ -4252,24 +4265,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D61" t="s">
         <v>250</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="G61" t="s">
         <v>58</v>
@@ -4283,9 +4293,6 @@
       <c r="J61" t="s">
         <v>27</v>
       </c>
-      <c r="K61" t="s">
-        <v>27</v>
-      </c>
       <c r="L61" t="s">
         <v>27</v>
       </c>
@@ -4302,15 +4309,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B62" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C62" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s">
         <v>250</v>
@@ -4319,7 +4326,7 @@
         <v>69</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G62" t="s">
         <v>58</v>
@@ -4328,7 +4335,7 @@
         <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="J62" t="s">
         <v>27</v>
@@ -4352,21 +4359,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D63" t="s">
         <v>250</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="F63" t="s">
+        <v>200</v>
       </c>
       <c r="G63" t="s">
         <v>58</v>
@@ -4380,6 +4390,9 @@
       <c r="J63" t="s">
         <v>27</v>
       </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
       <c r="L63" t="s">
         <v>27</v>
       </c>
@@ -4396,15 +4409,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B64" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
         <v>250</v>
@@ -4413,7 +4426,7 @@
         <v>69</v>
       </c>
       <c r="F64" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G64" t="s">
         <v>58</v>
@@ -4446,24 +4459,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
         <v>250</v>
       </c>
       <c r="E65" t="s">
-        <v>73</v>
-      </c>
-      <c r="F65" t="s">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="G65" t="s">
         <v>58</v>
@@ -4477,9 +4487,6 @@
       <c r="J65" t="s">
         <v>27</v>
       </c>
-      <c r="K65" t="s">
-        <v>27</v>
-      </c>
       <c r="L65" t="s">
         <v>27</v>
       </c>
@@ -4496,24 +4503,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
         <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F66" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="G66" t="s">
         <v>58</v>
@@ -4546,21 +4553,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C67" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D67" t="s">
         <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>73</v>
+      </c>
+      <c r="F67" t="s">
+        <v>166</v>
       </c>
       <c r="G67" t="s">
         <v>58</v>
@@ -4574,6 +4584,9 @@
       <c r="J67" t="s">
         <v>27</v>
       </c>
+      <c r="K67" t="s">
+        <v>27</v>
+      </c>
       <c r="L67" t="s">
         <v>27</v>
       </c>
@@ -4590,21 +4603,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="D68" t="s">
         <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="F68" t="s">
+        <v>168</v>
       </c>
       <c r="G68" t="s">
         <v>58</v>
@@ -4618,6 +4634,9 @@
       <c r="J68" t="s">
         <v>27</v>
       </c>
+      <c r="K68" t="s">
+        <v>27</v>
+      </c>
       <c r="L68" t="s">
         <v>27</v>
       </c>
@@ -4627,25 +4646,28 @@
       <c r="N68" t="s">
         <v>27</v>
       </c>
+      <c r="X68" t="s">
+        <v>6</v>
+      </c>
       <c r="Y68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D69" t="s">
         <v>250</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="G69" t="s">
         <v>58</v>
@@ -4675,18 +4697,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>264</v>
+      </c>
+      <c r="C70" t="s">
+        <v>266</v>
       </c>
       <c r="D70" t="s">
         <v>250</v>
       </c>
       <c r="E70" t="s">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="G70" t="s">
         <v>58</v>
@@ -4709,28 +4734,25 @@
       <c r="N70" t="s">
         <v>27</v>
       </c>
-      <c r="X70" t="s">
-        <v>6</v>
-      </c>
       <c r="Y70" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
         <v>250</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s">
         <v>58</v>
@@ -4753,31 +4775,25 @@
       <c r="N71" t="s">
         <v>27</v>
       </c>
-      <c r="P71" t="s">
+      <c r="X71" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>217</v>
       </c>
-      <c r="X71" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>223</v>
-      </c>
       <c r="B72" t="s">
-        <v>224</v>
-      </c>
-      <c r="C72" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D72" t="s">
         <v>250</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="G72" t="s">
         <v>58</v>
@@ -4800,9 +4816,6 @@
       <c r="N72" t="s">
         <v>27</v>
       </c>
-      <c r="P72" t="s">
-        <v>217</v>
-      </c>
       <c r="X72" t="s">
         <v>6</v>
       </c>
@@ -4810,21 +4823,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D73" t="s">
         <v>250</v>
       </c>
       <c r="E73" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="G73" t="s">
         <v>58</v>
@@ -4847,8 +4860,8 @@
       <c r="N73" t="s">
         <v>27</v>
       </c>
-      <c r="O73" t="s">
-        <v>138</v>
+      <c r="P73" t="s">
+        <v>217</v>
       </c>
       <c r="X73" t="s">
         <v>6</v>
@@ -4857,24 +4870,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" t="s">
         <v>250</v>
       </c>
       <c r="E74" t="s">
-        <v>140</v>
-      </c>
-      <c r="F74" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="G74" t="s">
         <v>58</v>
@@ -4888,9 +4898,6 @@
       <c r="J74" t="s">
         <v>27</v>
       </c>
-      <c r="K74" t="s">
-        <v>27</v>
-      </c>
       <c r="L74" t="s">
         <v>27</v>
       </c>
@@ -4900,6 +4907,9 @@
       <c r="N74" t="s">
         <v>27</v>
       </c>
+      <c r="P74" t="s">
+        <v>217</v>
+      </c>
       <c r="X74" t="s">
         <v>6</v>
       </c>
@@ -4907,183 +4917,186 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="D75" t="s">
         <v>250</v>
       </c>
       <c r="E75" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" t="s">
+        <v>58</v>
+      </c>
+      <c r="H75" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" t="s">
+        <v>58</v>
+      </c>
+      <c r="J75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" t="s">
+        <v>27</v>
+      </c>
+      <c r="M75" t="s">
+        <v>27</v>
+      </c>
+      <c r="N75" t="s">
+        <v>27</v>
+      </c>
+      <c r="O75" t="s">
+        <v>138</v>
+      </c>
+      <c r="X75" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G76" t="s">
+        <v>58</v>
+      </c>
+      <c r="H76" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" t="s">
+        <v>58</v>
+      </c>
+      <c r="J76" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" t="s">
+        <v>27</v>
+      </c>
+      <c r="M76" t="s">
+        <v>27</v>
+      </c>
+      <c r="N76" t="s">
+        <v>27</v>
+      </c>
+      <c r="X76" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" t="s">
         <v>57</v>
       </c>
-      <c r="G75" t="s">
-        <v>58</v>
-      </c>
-      <c r="H75" t="s">
-        <v>27</v>
-      </c>
-      <c r="I75" t="s">
-        <v>58</v>
-      </c>
-      <c r="J75" t="s">
-        <v>27</v>
-      </c>
-      <c r="L75" t="s">
-        <v>27</v>
-      </c>
-      <c r="M75" t="s">
-        <v>27</v>
-      </c>
-      <c r="N75" t="s">
-        <v>27</v>
-      </c>
-      <c r="X75" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="G77" t="s">
+        <v>58</v>
+      </c>
+      <c r="H77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" t="s">
+        <v>58</v>
+      </c>
+      <c r="J77" t="s">
+        <v>27</v>
+      </c>
+      <c r="L77" t="s">
+        <v>27</v>
+      </c>
+      <c r="M77" t="s">
+        <v>27</v>
+      </c>
+      <c r="N77" t="s">
+        <v>27</v>
+      </c>
+      <c r="X77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>107</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>107</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C78" t="s">
         <v>177</v>
-      </c>
-      <c r="D76" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" t="s">
-        <v>57</v>
-      </c>
-      <c r="G76" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" t="s">
-        <v>58</v>
-      </c>
-      <c r="I76" t="s">
-        <v>58</v>
-      </c>
-      <c r="J76" t="s">
-        <v>58</v>
-      </c>
-      <c r="K76" t="s">
-        <v>58</v>
-      </c>
-      <c r="L76" t="s">
-        <v>58</v>
-      </c>
-      <c r="M76" t="s">
-        <v>27</v>
-      </c>
-      <c r="N76" t="s">
-        <v>58</v>
-      </c>
-      <c r="X76" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>179</v>
-      </c>
-      <c r="B77" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" t="s">
-        <v>251</v>
-      </c>
-      <c r="E77" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" t="s">
-        <v>250</v>
-      </c>
-      <c r="G77" t="s">
-        <v>27</v>
-      </c>
-      <c r="H77" t="s">
-        <v>27</v>
-      </c>
-      <c r="I77" t="s">
-        <v>58</v>
-      </c>
-      <c r="J77" t="s">
-        <v>27</v>
-      </c>
-      <c r="K77" t="s">
-        <v>27</v>
-      </c>
-      <c r="L77" t="s">
-        <v>58</v>
-      </c>
-      <c r="M77" t="s">
-        <v>27</v>
-      </c>
-      <c r="N77" t="s">
-        <v>27</v>
-      </c>
-      <c r="X77" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>227</v>
-      </c>
-      <c r="B78" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" t="s">
-        <v>229</v>
       </c>
       <c r="D78" t="s">
         <v>251</v>
       </c>
       <c r="E78" t="s">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="G78" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H78" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="I78" t="s">
         <v>58</v>
       </c>
       <c r="J78" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="K78" t="s">
+        <v>58</v>
       </c>
       <c r="L78" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M78" t="s">
         <v>27</v>
       </c>
       <c r="N78" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="X78" t="s">
         <v>6</v>
@@ -5092,21 +5105,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>179</v>
+      </c>
+      <c r="B79" t="s">
+        <v>179</v>
       </c>
       <c r="C79" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
         <v>251</v>
       </c>
       <c r="E79" t="s">
-        <v>230</v>
+        <v>73</v>
+      </c>
+      <c r="F79" t="s">
+        <v>250</v>
       </c>
       <c r="G79" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="H79" t="s">
         <v>27</v>
@@ -5117,8 +5136,11 @@
       <c r="J79" t="s">
         <v>27</v>
       </c>
+      <c r="K79" t="s">
+        <v>27</v>
+      </c>
       <c r="L79" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M79" t="s">
         <v>27</v>
@@ -5133,12 +5155,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>233</v>
+        <v>227</v>
+      </c>
+      <c r="B80" t="s">
+        <v>228</v>
       </c>
       <c r="C80" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D80" t="s">
         <v>251</v>
@@ -5174,24 +5199,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>235</v>
-      </c>
-      <c r="B81" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D81" t="s">
         <v>251</v>
       </c>
       <c r="E81" t="s">
-        <v>73</v>
-      </c>
-      <c r="F81" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G81" t="s">
         <v>58</v>
@@ -5205,9 +5224,6 @@
       <c r="J81" t="s">
         <v>27</v>
       </c>
-      <c r="K81" t="s">
-        <v>27</v>
-      </c>
       <c r="L81" t="s">
         <v>27</v>
       </c>
@@ -5224,12 +5240,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D82" t="s">
         <v>251</v>
@@ -5265,18 +5281,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>235</v>
+      </c>
+      <c r="B83" t="s">
+        <v>235</v>
       </c>
       <c r="C83" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D83" t="s">
         <v>251</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+      <c r="F83" t="s">
+        <v>200</v>
       </c>
       <c r="G83" t="s">
         <v>58</v>
@@ -5290,6 +5312,9 @@
       <c r="J83" t="s">
         <v>27</v>
       </c>
+      <c r="K83" t="s">
+        <v>27</v>
+      </c>
       <c r="L83" t="s">
         <v>27</v>
       </c>
@@ -5306,18 +5331,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C84" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
         <v>251</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="G84" t="s">
         <v>58</v>
@@ -5347,24 +5372,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>70</v>
-      </c>
-      <c r="B85" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="C85" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="D85" t="s">
         <v>251</v>
       </c>
       <c r="E85" t="s">
-        <v>140</v>
-      </c>
-      <c r="F85" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G85" t="s">
         <v>58</v>
@@ -5378,9 +5397,6 @@
       <c r="J85" t="s">
         <v>27</v>
       </c>
-      <c r="K85" t="s">
-        <v>27</v>
-      </c>
       <c r="L85" t="s">
         <v>27</v>
       </c>
@@ -5397,51 +5413,149 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>75</v>
-      </c>
-      <c r="B86" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="C86" t="s">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="D86" t="s">
         <v>251</v>
       </c>
       <c r="E86" t="s">
+        <v>163</v>
+      </c>
+      <c r="G86" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s">
+        <v>58</v>
+      </c>
+      <c r="J86" t="s">
+        <v>27</v>
+      </c>
+      <c r="L86" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" t="s">
+        <v>27</v>
+      </c>
+      <c r="N86" t="s">
+        <v>27</v>
+      </c>
+      <c r="X86" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D87" t="s">
+        <v>251</v>
+      </c>
+      <c r="E87" t="s">
+        <v>140</v>
+      </c>
+      <c r="F87" t="s">
+        <v>74</v>
+      </c>
+      <c r="G87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H87" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" t="s">
+        <v>58</v>
+      </c>
+      <c r="J87" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" t="s">
+        <v>27</v>
+      </c>
+      <c r="L87" t="s">
+        <v>27</v>
+      </c>
+      <c r="M87" t="s">
+        <v>27</v>
+      </c>
+      <c r="N87" t="s">
+        <v>27</v>
+      </c>
+      <c r="X87" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" t="s">
+        <v>251</v>
+      </c>
+      <c r="E88" t="s">
         <v>57</v>
       </c>
-      <c r="G86" t="s">
-        <v>58</v>
-      </c>
-      <c r="H86" t="s">
-        <v>27</v>
-      </c>
-      <c r="I86" t="s">
-        <v>58</v>
-      </c>
-      <c r="J86" t="s">
-        <v>27</v>
-      </c>
-      <c r="L86" t="s">
-        <v>27</v>
-      </c>
-      <c r="M86" t="s">
-        <v>27</v>
-      </c>
-      <c r="N86" t="s">
-        <v>27</v>
-      </c>
-      <c r="X86" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y86" t="s">
+      <c r="G88" t="s">
+        <v>58</v>
+      </c>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s">
+        <v>58</v>
+      </c>
+      <c r="J88" t="s">
+        <v>27</v>
+      </c>
+      <c r="L88" t="s">
+        <v>27</v>
+      </c>
+      <c r="M88" t="s">
+        <v>27</v>
+      </c>
+      <c r="N88" t="s">
+        <v>27</v>
+      </c>
+      <c r="X88" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y88" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO88" xr:uid="{113F636F-2BD2-4749-9ABE-49F0D0E80F76}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="rd3_freezeX_labinfo"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/emx/freeze/rd3_freezeX.xlsx
+++ b/emx/freeze/rd3_freezeX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/molgenis-solve-rd/emx/freeze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3690D8A3-29C9-E54C-9200-E36FABE2B9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972EF1D6-A99E-CE40-B3CD-7DB60269C70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1420,7 +1420,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="10" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2097,355 +2097,355 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="G13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="X13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="X13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" t="s">
-        <v>27</v>
-      </c>
-      <c r="X15" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X16" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="G16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G17" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" t="s">
-        <v>27</v>
-      </c>
-      <c r="X17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="G17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="G18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="G19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" t="s">
-        <v>27</v>
-      </c>
-      <c r="X20" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
